--- a/forecasts/F.Close_forecast.xlsx
+++ b/forecasts/F.Close_forecast.xlsx
@@ -383,376 +383,376 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0218715382989274</v>
+        <v>0.021237239380017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0315942877839222</v>
+        <v>-0.0159176274189066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00975397648769605</v>
+        <v>-0.0220548447337368</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0127054113702382</v>
+        <v>0.00308760632260527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45813</v>
+        <v>45815</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0219521323342621</v>
+        <v>0.0213261957205351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0349431005632565</v>
+        <v>-0.00134964918385065</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0157602676066539</v>
+        <v>0.0385932603134151</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00195037366242778</v>
+        <v>-0.0199920122604846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45814</v>
+        <v>45816</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0220317747888117</v>
+        <v>0.0214140368917298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0306336444869903</v>
+        <v>0.0353888631226597</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0144276698809037</v>
+        <v>0.0627004218994842</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00305223185490099</v>
+        <v>0.00604482369135158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45815</v>
+        <v>45817</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0221104813078541</v>
+        <v>0.0215007828255448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0110950205123065</v>
+        <v>-0.0179190591779992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00194414378995495</v>
+        <v>0.0111995984647088</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0084875079688729</v>
+        <v>0.0689703502964485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45816</v>
+        <v>45818</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0221882671511249</v>
+        <v>0.0215864529121629</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00130449103795791</v>
+        <v>-0.00341984466591286</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00569089148114851</v>
+        <v>0.0110553731219206</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0616955135990564</v>
+        <v>0.0206269573465336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0222651472063532</v>
+        <v>0.0216710660210063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0105244333058127</v>
+        <v>-0.0139165662554716</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0305329529888131</v>
+        <v>-0.0149851792253293</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0308682381971786</v>
+        <v>0.0464136220810609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B8" t="n">
-        <v>0.022341136002178</v>
+        <v>0.0217546405206791</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0772873208495006</v>
+        <v>-0.018826177969438</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0810499862624952</v>
+        <v>-0.02717956118394</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0193601710573503</v>
+        <v>0.0551988521295444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0224162477204799</v>
+        <v>0.0218371942979172</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0055053086560621</v>
+        <v>-0.0146353791145868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0158990091322523</v>
+        <v>0.0211595557628131</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0180373703765084</v>
+        <v>0.0164729612773828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45820</v>
+        <v>45822</v>
       </c>
       <c r="B10" t="n">
-        <v>0.022490496208161</v>
+        <v>0.0219187447756054</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0223779358525484</v>
+        <v>-0.00221212246070971</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00202095622931991</v>
+        <v>-0.00694588173834837</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0192147231755197</v>
+        <v>-0.000144986613337706</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45821</v>
+        <v>45823</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0225638949884025</v>
+        <v>0.0219993089299185</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0283352706289005</v>
+        <v>-0.0223023872931142</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0107583910105756</v>
+        <v>0.00678257132576094</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0069093398297717</v>
+        <v>-0.0135601814525798</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45822</v>
+        <v>45824</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0226364572714289</v>
+        <v>0.0220789033066376</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0306854506698965</v>
+        <v>-0.00617659919707771</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.00839211392028774</v>
+        <v>0.00971063507192464</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0207692059654078</v>
+        <v>-0.0107261446914138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0227081959648053</v>
+        <v>0.0221575440366909</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00915187566567483</v>
+        <v>0.00415623494261977</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0269379725507673</v>
+        <v>-0.0129618194775237</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00526512504462256</v>
+        <v>-0.0057540551360735</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0227791236832915</v>
+        <v>0.0222352468509629</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.00136621165877799</v>
+        <v>-0.0297531536528072</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00258251635913598</v>
+        <v>-0.0332124662969621</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00713840798363869</v>
+        <v>0.00806573038119755</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0228492527582783</v>
+        <v>0.0223120270944154</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0308287435373293</v>
+        <v>-0.00342224908668228</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00963214534245108</v>
+        <v>-0.0228630046181817</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00910554925795946</v>
+        <v>-0.0026482327799739</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0229185952468252</v>
+        <v>0.0223878997395587</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0219167150508097</v>
+        <v>0.00161108187036223</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00195873166316383</v>
+        <v>-0.00147399339361342</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00512850083637346</v>
+        <v>-0.0097147047617539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45827</v>
+        <v>45829</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0229871629403229</v>
+        <v>0.0224628793993094</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.00683663161541746</v>
+        <v>0.00306990582128302</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0163997813472321</v>
+        <v>-0.0034270508558372</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.00792216165792352</v>
+        <v>0.021691788710266</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45828</v>
+        <v>45830</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0230549673727967</v>
+        <v>0.0225369803392693</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0000191386844986694</v>
+        <v>-0.0159191815383284</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0350428978715319</v>
+        <v>-0.00971878671411727</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.00307951911420305</v>
+        <v>0.00506854215980332</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0231220198288717</v>
+        <v>0.0226102164894574</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0616648516883088</v>
+        <v>-0.0113867901632006</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0377437334403563</v>
+        <v>0.00974440355195432</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00929354139416251</v>
+        <v>0.0239248655231731</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45830</v>
+        <v>45832</v>
       </c>
       <c r="B20" t="n">
-        <v>0.023188331351415</v>
+        <v>0.0226826014555245</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0168069929049595</v>
+        <v>0.00962323389553067</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0130190817029482</v>
+        <v>-0.00575864089329807</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0192841382057643</v>
+        <v>0.0313485833728384</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0232539127488719</v>
+        <v>0.0227541485294783</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.003682931841336</v>
+        <v>0.024180270576184</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0010235336285998</v>
+        <v>0.0288888478747091</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.000198471812776529</v>
+        <v>0.0134529525836918</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0233187746023101</v>
+        <v>0.0228248706999455</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00689755211983021</v>
+        <v>0.00972515923178262</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00148772413101754</v>
+        <v>0.0274080266349053</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0518960447252662</v>
+        <v>-0.0013220082970275</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0233829272721877</v>
+        <v>0.0228947806619953</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0344331700809528</v>
+        <v>-0.0200903147549414</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.00508921527625067</v>
+        <v>0.0273050187294509</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0020787108439588</v>
+        <v>-0.0243940555651971</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts/F.Close_forecast.xlsx
+++ b/forecasts/F.Close_forecast.xlsx
@@ -389,13 +389,13 @@
         <v>0.021237239380017</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0159176274189066</v>
+        <v>0.0266002171135009</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0220548447337368</v>
+        <v>0.00813016336620938</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00308760632260527</v>
+        <v>-0.000075992548292961</v>
       </c>
     </row>
     <row r="3">
@@ -406,13 +406,13 @@
         <v>0.0213261957205351</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00134964918385065</v>
+        <v>-0.00397501103241846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0385932603134151</v>
+        <v>-0.0147267416346935</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0199920122604846</v>
+        <v>0.00678867676668831</v>
       </c>
     </row>
     <row r="4">
@@ -423,13 +423,13 @@
         <v>0.0214140368917298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0353888631226597</v>
+        <v>-0.00864102855490667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0627004218994842</v>
+        <v>0.00358109248351411</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00604482369135158</v>
+        <v>-0.00307052801895789</v>
       </c>
     </row>
     <row r="5">
@@ -440,13 +440,13 @@
         <v>0.0215007828255448</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0179190591779992</v>
+        <v>-0.00540491439694744</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0111995984647088</v>
+        <v>-0.0297472576792328</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0689703502964485</v>
+        <v>0.0385919500970653</v>
       </c>
     </row>
     <row r="6">
@@ -457,13 +457,13 @@
         <v>0.0215864529121629</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00341984466591286</v>
+        <v>-0.0157673205103615</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0110553731219206</v>
+        <v>-0.003899948779025</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0206269573465336</v>
+        <v>-0.0112011800855245</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>0.0216710660210063</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0139165662554716</v>
+        <v>0.0276109467249281</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0149851792253293</v>
+        <v>0.00010534591299833</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0464136220810609</v>
+        <v>-0.00344646522860554</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         <v>0.0217546405206791</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.018826177969438</v>
+        <v>0.0141066195608654</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02717956118394</v>
+        <v>0.00785174917893002</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0551988521295444</v>
+        <v>0.00881327169681577</v>
       </c>
     </row>
     <row r="9">
@@ -508,13 +508,13 @@
         <v>0.0218371942979172</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0146353791145868</v>
+        <v>0.00812557760898481</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0211595557628131</v>
+        <v>-0.0176199099601375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0164729612773828</v>
+        <v>-0.0013803129245971</v>
       </c>
     </row>
     <row r="10">
@@ -525,13 +525,13 @@
         <v>0.0219187447756054</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00221212246070971</v>
+        <v>-0.00190812836490754</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00694588173834837</v>
+        <v>0.00446266873036272</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.000144986613337706</v>
+        <v>-0.0462510555301089</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +542,13 @@
         <v>0.0219993089299185</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0223023872931142</v>
+        <v>0.022755314760017</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00678257132576094</v>
+        <v>0.0180531936960862</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0135601814525798</v>
+        <v>-0.0129878665182734</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +559,13 @@
         <v>0.0220789033066376</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00617659919707771</v>
+        <v>0.0352323732405538</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00971063507192464</v>
+        <v>-0.0237040508300712</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0107261446914138</v>
+        <v>-0.00255714828703183</v>
       </c>
     </row>
     <row r="13">
@@ -576,13 +576,13 @@
         <v>0.0221575440366909</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00415623494261977</v>
+        <v>-0.0361822358164813</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0129618194775237</v>
+        <v>0.0365969772664681</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0057540551360735</v>
+        <v>-0.00393550600615628</v>
       </c>
     </row>
     <row r="14">
@@ -593,13 +593,13 @@
         <v>0.0222352468509629</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0297531536528072</v>
+        <v>-0.0358525359077739</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0332124662969621</v>
+        <v>0.0207062691201942</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00806573038119755</v>
+        <v>-0.00105930991887684</v>
       </c>
     </row>
     <row r="15">
@@ -610,13 +610,13 @@
         <v>0.0223120270944154</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.00342224908668228</v>
+        <v>0.0139324231798729</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0228630046181817</v>
+        <v>-0.0330542749676481</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0026482327799739</v>
+        <v>-0.00105848293414578</v>
       </c>
     </row>
     <row r="16">
@@ -627,13 +627,13 @@
         <v>0.0223878997395587</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00161108187036223</v>
+        <v>0.0198624281194483</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00147399339361342</v>
+        <v>-0.00286916611074901</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0097147047617539</v>
+        <v>-0.00438815117501076</v>
       </c>
     </row>
     <row r="17">
@@ -644,13 +644,13 @@
         <v>0.0224628793993094</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00306990582128302</v>
+        <v>0.0137246851419086</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0034270508558372</v>
+        <v>0.0054630295750226</v>
       </c>
       <c r="E17" t="n">
-        <v>0.021691788710266</v>
+        <v>-0.087510441480551</v>
       </c>
     </row>
     <row r="18">
@@ -661,13 +661,13 @@
         <v>0.0225369803392693</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0159191815383284</v>
+        <v>-0.0280552490604861</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00971878671411727</v>
+        <v>0.0825857376321781</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00506854215980332</v>
+        <v>0.00207050236623067</v>
       </c>
     </row>
     <row r="19">
@@ -678,13 +678,13 @@
         <v>0.0226102164894574</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0113867901632006</v>
+        <v>-0.0226641639086771</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00974440355195432</v>
+        <v>0.00791845524031366</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0239248655231731</v>
+        <v>0.0229279732561017</v>
       </c>
     </row>
     <row r="20">
@@ -695,13 +695,13 @@
         <v>0.0226826014555245</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00962323389553067</v>
+        <v>0.0318600352661455</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.00575864089329807</v>
+        <v>0.0235694707425876</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0313485833728384</v>
+        <v>-0.0431036847139044</v>
       </c>
     </row>
     <row r="21">
@@ -712,13 +712,13 @@
         <v>0.0227541485294783</v>
       </c>
       <c r="C21" t="n">
-        <v>0.024180270576184</v>
+        <v>-0.0243394681891658</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0288888478747091</v>
+        <v>-0.0121744493032024</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0134529525836918</v>
+        <v>0.0117402390201567</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>0.0228248706999455</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00972515923178262</v>
+        <v>-0.0535187162654041</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0274080266349053</v>
+        <v>-0.00334044607732441</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0013220082970275</v>
+        <v>0.00874830500148209</v>
       </c>
     </row>
     <row r="23">
@@ -746,13 +746,13 @@
         <v>0.0228947806619953</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0200903147549414</v>
+        <v>0.00632176709587041</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0273050187294509</v>
+        <v>-0.0228126452699433</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0243940555651971</v>
+        <v>0.0206066643249205</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts/F.Close_forecast.xlsx
+++ b/forecasts/F.Close_forecast.xlsx
@@ -383,376 +383,376 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="B2" t="n">
-        <v>0.021237239380017</v>
+        <v>0.0204335800289764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0266002171135009</v>
+        <v>-0.0104287971134065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00813016336620938</v>
+        <v>0.0405363914755481</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.000075992548292961</v>
+        <v>-0.0134031512064552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0213261957205351</v>
+        <v>0.0205321659749987</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00397501103241846</v>
+        <v>0.0305215196740608</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0147267416346935</v>
+        <v>-0.0381844772856084</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00678867676668831</v>
+        <v>0.0112827834068132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0214140368917298</v>
+        <v>0.0206294406748939</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00864102855490667</v>
+        <v>0.000168939916818293</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00358109248351411</v>
+        <v>0.00189290260929298</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00307052801895789</v>
+        <v>0.0104353500261212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0215007828255448</v>
+        <v>0.0207254297693571</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00540491439694744</v>
+        <v>-0.00727522834207411</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0297472576792328</v>
+        <v>0.0112816139225282</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0385919500970653</v>
+        <v>0.014638832552354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0215864529121629</v>
+        <v>0.0208201581235533</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0157673205103615</v>
+        <v>0.022596946986259</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.003899948779025</v>
+        <v>-0.0462053830506764</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0112011800855245</v>
+        <v>0.000526970977455298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0216710660210063</v>
+        <v>0.0209136498605812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0276109467249281</v>
+        <v>0.0366962419243484</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00010534591299833</v>
+        <v>-0.0211643011488447</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00344646522860554</v>
+        <v>0.0106505433042907</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0217546405206791</v>
+        <v>0.0210059283930659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0141066195608654</v>
+        <v>-0.00778322228516825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00785174917893002</v>
+        <v>-0.0524204175796309</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00881327169681577</v>
+        <v>0.00608750827840521</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0218371942979172</v>
+        <v>0.0210970164530102</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00812557760898481</v>
+        <v>0.0157165045582697</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0176199099601375</v>
+        <v>0.0163925014868827</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0013803129245971</v>
+        <v>-0.00440711665874676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0219187447756054</v>
+        <v>0.0211869361200184</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00190812836490754</v>
+        <v>0.000650148541401212</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00446266873036272</v>
+        <v>0.00585548770833338</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0462510555301089</v>
+        <v>0.00347053353001163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0219993089299185</v>
+        <v>0.0212757088480036</v>
       </c>
       <c r="C11" t="n">
-        <v>0.022755314760017</v>
+        <v>-0.0174434870197416</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0180531936960862</v>
+        <v>-0.00545030591574909</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0129878665182734</v>
+        <v>-0.0241985632997839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0220789033066376</v>
+        <v>0.0213633554904753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0352323732405538</v>
+        <v>0.0271824044341356</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0237040508300712</v>
+        <v>-0.00822606663761671</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.00255714828703183</v>
+        <v>0.00754811251292196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0221575440366909</v>
+        <v>0.021449896324501</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0361822358164813</v>
+        <v>-0.0254666326996026</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0365969772664681</v>
+        <v>-0.00540366397957224</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.00393550600615628</v>
+        <v>0.00608458456769268</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0222352468509629</v>
+        <v>0.0215353510734257</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0358525359077739</v>
+        <v>-0.0251748674101337</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0207062691201942</v>
+        <v>-0.0336002046167139</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00105930991887684</v>
+        <v>-0.0207679868673108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0223120270944154</v>
+        <v>0.021619738928428</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0139324231798729</v>
+        <v>0.0237408126322693</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0330542749676481</v>
+        <v>-0.00389649803540222</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.00105848293414578</v>
+        <v>0.00328062221801786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0223878997395587</v>
+        <v>0.0217030785689858</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0198624281194483</v>
+        <v>-0.0123997296907652</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00286916611074901</v>
+        <v>-0.00556572986951572</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.00438815117501076</v>
+        <v>0.00422709868827907</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0224628793993094</v>
+        <v>0.0217853881823179</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0137246851419086</v>
+        <v>0.0428408575170658</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0054630295750226</v>
+        <v>0.000439919735544414</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.087510441480551</v>
+        <v>-0.00930840095534684</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0225369803392693</v>
+        <v>0.021866685481866</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0280552490604861</v>
+        <v>0.0402321017391747</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0825857376321781</v>
+        <v>0.0366898097607808</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00207050236623067</v>
+        <v>0.0151289055679365</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0226102164894574</v>
+        <v>0.0219469877248722</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0226641639086771</v>
+        <v>-0.0000309913335527943</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00791845524031366</v>
+        <v>-0.0160610751450294</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0229279732561017</v>
+        <v>0.0256649699743009</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0226826014555245</v>
+        <v>0.0220263117291087</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0318600352661455</v>
+        <v>-0.0112958229645115</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0235694707425876</v>
+        <v>0.0103413687753839</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0431036847139044</v>
+        <v>-0.00107534080006858</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0227541485294783</v>
+        <v>0.0221046738888083</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0243394681891658</v>
+        <v>0.0230878234084179</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0121744493032024</v>
+        <v>0.0244061044474426</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0117402390201567</v>
+        <v>-0.0122817984794649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0228248706999455</v>
+        <v>0.0221820901898417</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0535187162654041</v>
+        <v>-0.0240013282217958</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00334044607732441</v>
+        <v>0.00580275840209933</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00874830500148209</v>
+        <v>0.0149695772334923</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0228947806619953</v>
+        <v>0.0222585762241873</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00632176709587041</v>
+        <v>-0.00124423584225302</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0228126452699433</v>
+        <v>-0.000175237202281519</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0206066643249205</v>
+        <v>0.00509400394905307</v>
       </c>
     </row>
   </sheetData>
